--- a/Interop/Excel/bin/Release/Table1.xlsx
+++ b/Interop/Excel/bin/Release/Table1.xlsx
@@ -13,6 +13,32 @@
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+  <si>
+    <t>Първо име</t>
+  </si>
+  <si>
+    <t>Фамилия</t>
+  </si>
+  <si>
+    <t>Години</t>
+  </si>
+  <si>
+    <t>Мартин</t>
+  </si>
+  <si>
+    <t>Симеонов</t>
+  </si>
+  <si>
+    <t>Геори</t>
+  </si>
+  <si>
+    <t>Маринов</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -343,12 +369,46 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3">
+        <v>37</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/Interop/Excel/bin/Release/Table1.xlsx
+++ b/Interop/Excel/bin/Release/Table1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="30" windowWidth="20055" windowHeight="10740"/>
+    <workbookView xWindow="0" yWindow="60" windowWidth="10455" windowHeight="10485"/>
   </bookViews>
   <sheets>
     <sheet name="Таблица 1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>Първо име</t>
   </si>
@@ -37,13 +37,16 @@
   </si>
   <si>
     <t>Маринов</t>
+  </si>
+  <si>
+    <t>Брой редове</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -52,13 +55,28 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="57"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -73,8 +91,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Нормален" xfId="0" builtinId="0"/>
@@ -369,47 +389,57 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2">
-        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
         <v>5</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B4" t="s">
         <v>6</v>
       </c>
-      <c r="C3">
+      <c r="C4">
         <v>37</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
